--- a/biology/Zoologie/Coliadinae/Coliadinae.xlsx
+++ b/biology/Zoologie/Coliadinae/Coliadinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coliadinae sont une sous-famille de lépidoptères (papillons) de la famille des Pieridae. Elle regroupe environ 300 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce taxon a été décrit par le biologiste britannique William Swainson en 1827.
 </t>
@@ -542,7 +556,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En anglais, les espèces de la sous-famille des Coliadinae sont appelées les yellows et les sulphurs.
 </t>
@@ -573,27 +589,29 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Coliadinae se compose d'environ dix-huit genres[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Coliadinae se compose d'environ dix-huit genres :
 Nathalis Boisduval, 1836
-Kricogonia Reakirt, [1864]
+Kricogonia Reakirt, 
 Pyrisitia Butler, 1870
-Eurema Hübner, [1819]
-Abaeis Hübner, [1819]
+Eurema Hübner, 
+Abaeis Hübner, 
 Teriocolias Röber, 1909
 Leucidia Doubleday, 1847
 Gandaca Moore, 1906
-Gonepteryx Leach, [1815]
-Dercas Doubleday, [1847]
-Phoebis Hübner, [1819]
+Gonepteryx Leach, 
+Dercas Doubleday, 
+Phoebis Hübner, 
 Aphrissa Butler, 1873
 Rhabdodryas Godman &amp; Salvin, 1889
 Prestonia Schaus, 1920
-Catopsilia Hübner, [1819]
-Anteos Hübner, [1819]
+Catopsilia Hübner, 
+Anteos Hübner, 
 Colias Fabricius, 1807
-Zerene Hübner, [1819]
+Zerene Hübner, 
 			Kricogonia lyside
 			Pyrisitia lisa
 			Eurema hecabe
